--- a/COVID NFLStats/WR/WR_aggregate.xlsx
+++ b/COVID NFLStats/WR/WR_aggregate.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,49 +490,49 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Cedrick Wilson Jr.</t>
+          <t>Allen Lazard</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>2019-2021</t>
+          <t>Group1</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>11.2333333333333</v>
+        <v>13.36666666666667</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>7.5</v>
+        <v>9.200000000000001</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>54.7666666666667</v>
+        <v>63.06666666666666</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Cedrick Wilson Jr.</t>
+          <t>Allen Lazard</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>2022-2024</t>
+          <t>Group2</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>11.8</v>
+        <v>13.63333333333333</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>7.73333333333333</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>52.2</v>
+        <v>51.36666666666667</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>Cedrick Wilson Jr.</t>
+          <t>Allen Lazard</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -541,61 +541,61 @@
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0.566666666666666</v>
+        <v>0.2666666666666693</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.233333333333333</v>
+        <v>-1.533333333333334</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-2.56666666666668</v>
+        <v>-11.7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>Kendrick Bourne</t>
+          <t>Amari Cooper</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>2019-2021</t>
+          <t>Group1</t>
         </is>
       </c>
       <c r="C5" s="3" t="n">
-        <v>13.3333333333333</v>
+        <v>13.3</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>9.5</v>
+        <v>8.966666666666667</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>60.9666666666667</v>
+        <v>59.96666666666666</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>Kendrick Bourne</t>
+          <t>Amari Cooper</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>2022-2024</t>
+          <t>Group2</t>
         </is>
       </c>
       <c r="C6" s="3" t="n">
-        <v>11.4333333333333</v>
+        <v>14.95555555555556</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>8.133333333333329</v>
+        <v>8.466666666666667</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>52.8666666666667</v>
+        <v>49.95555555555555</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>Kendrick Bourne</t>
+          <t>Amari Cooper</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
@@ -604,19 +604,19 @@
         </is>
       </c>
       <c r="C7" s="3" t="n">
-        <v>-1.9</v>
+        <v>1.655555555555557</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>-1.36666666666667</v>
+        <v>-0.5</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>-8.099999999999991</v>
+        <v>-10.01111111111111</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>Allen Lazard</t>
+          <t>Brandin Cooks</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -625,19 +625,19 @@
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>13.3666666666667</v>
+        <v>13.2</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>9.199999999999999</v>
+        <v>8.499999999999998</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>63.0666666666667</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>Allen Lazard</t>
+          <t>Brandin Cooks</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -646,19 +646,19 @@
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>13.6333333333333</v>
+        <v>11.5</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>7.66666666666667</v>
+        <v>6.8</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>51.3666666666667</v>
+        <v>50.33333333333334</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>Allen Lazard</t>
+          <t>Brandin Cooks</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>0.266666666666669</v>
+        <v>-1.700000000000001</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-1.53333333333333</v>
+        <v>-1.699999999999998</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-11.7</v>
+        <v>-4.666666666666664</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>Brandin Cooks</t>
+          <t>Cedrick Wilson Jr.</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
@@ -688,19 +688,19 @@
         </is>
       </c>
       <c r="C11" s="3" t="n">
-        <v>13.2</v>
+        <v>11.23333333333333</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="E11" s="3" t="n">
-        <v>55</v>
+        <v>54.76666666666667</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>Brandin Cooks</t>
+          <t>Cedrick Wilson Jr.</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -709,19 +709,19 @@
         </is>
       </c>
       <c r="C12" s="3" t="n">
-        <v>11.5</v>
+        <v>11.8</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>6.8</v>
+        <v>7.733333333333333</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>50.3333333333333</v>
+        <v>52.2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>Brandin Cooks</t>
+          <t>Cedrick Wilson Jr.</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
@@ -730,19 +730,19 @@
         </is>
       </c>
       <c r="C13" s="3" t="n">
-        <v>-1.7</v>
+        <v>0.5666666666666664</v>
       </c>
       <c r="D13" s="3" t="n">
-        <v>-1.7</v>
+        <v>0.2333333333333334</v>
       </c>
       <c r="E13" s="3" t="n">
-        <v>-4.66666666666666</v>
+        <v>-2.566666666666677</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>DeVante Adams</t>
+          <t>Darius Slayton</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -751,19 +751,19 @@
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>12.1666666666667</v>
+        <v>14.46666666666667</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>8.766666666666669</v>
+        <v>7.466666666666668</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>60.8</v>
+        <v>42.93333333333334</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>DeVante Adams</t>
+          <t>Darius Slayton</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -772,19 +772,19 @@
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>12.8555555555556</v>
+        <v>15.26666666666667</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>7.48888888888889</v>
+        <v>9.333333333333334</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>47.6</v>
+        <v>52.6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>DeVante Adams</t>
+          <t>Darius Slayton</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
@@ -793,19 +793,19 @@
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>0.688888888888888</v>
+        <v>0.7999999999999989</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-1.27777777777778</v>
+        <v>1.866666666666666</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-13.2</v>
+        <v>9.666666666666664</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>Marquez Valdes-Scantling</t>
+          <t>DeVante Adams</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="C17" s="3" t="n">
-        <v>18.2666666666667</v>
+        <v>12.16666666666667</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>8.96666666666667</v>
+        <v>8.766666666666667</v>
       </c>
       <c r="E17" s="3" t="n">
-        <v>39.8333333333333</v>
+        <v>60.79999999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>Marquez Valdes-Scantling</t>
+          <t>DeVante Adams</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -835,19 +835,19 @@
         </is>
       </c>
       <c r="C18" s="3" t="n">
-        <v>16.8222222222222</v>
+        <v>12.85555555555555</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>7.91111111111111</v>
+        <v>7.48888888888889</v>
       </c>
       <c r="E18" s="3" t="n">
-        <v>40.4888888888889</v>
+        <v>47.6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>Marquez Valdes-Scantling</t>
+          <t>DeVante Adams</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
@@ -856,19 +856,19 @@
         </is>
       </c>
       <c r="C19" s="3" t="n">
-        <v>-1.44444444444444</v>
+        <v>0.6888888888888882</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>-1.05555555555556</v>
+        <v>-1.277777777777778</v>
       </c>
       <c r="E19" s="3" t="n">
-        <v>0.655555555555552</v>
+        <v>-13.19999999999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>Tyreek Hill</t>
+          <t>Diontae Johnson</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
@@ -877,19 +877,19 @@
         </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>13.5666666666667</v>
+        <v>10.96666666666667</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>9</v>
+        <v>6.900000000000001</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>59.2666666666667</v>
+        <v>47.79999999999999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>Tyreek Hill</t>
+          <t>Diontae Johnson</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
@@ -898,19 +898,19 @@
         </is>
       </c>
       <c r="C21" s="2" t="n">
-        <v>13.7666666666667</v>
+        <v>11.075</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>9.46666666666667</v>
+        <v>6.066666666666666</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>55.4666666666667</v>
+        <v>44.13333333333333</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>Tyreek Hill</t>
+          <t>Diontae Johnson</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -919,19 +919,19 @@
         </is>
       </c>
       <c r="C22" s="2" t="n">
-        <v>0.199999999999998</v>
+        <v>0.1083333333333307</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.466666666666667</v>
+        <v>-0.8333333333333348</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-3.79999999999999</v>
+        <v>-3.666666666666657</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>Zach Pascal</t>
+          <t>joshreynolds</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
@@ -940,19 +940,19 @@
         </is>
       </c>
       <c r="C23" s="3" t="n">
-        <v>13.0666666666667</v>
+        <v>13.44444444444444</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>7.63333333333333</v>
+        <v>7.677777777777777</v>
       </c>
       <c r="E23" s="3" t="n">
-        <v>47.5333333333333</v>
+        <v>51.73333333333333</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>Zach Pascal</t>
+          <t>joshreynolds</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -961,19 +961,19 @@
         </is>
       </c>
       <c r="C24" s="3" t="n">
-        <v>7.4</v>
+        <v>13.84444444444444</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>4.6</v>
+        <v>8.077777777777778</v>
       </c>
       <c r="E24" s="3" t="n">
-        <v>41.6</v>
+        <v>50.62222222222223</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>Zach Pascal</t>
+          <t>joshreynolds</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
@@ -982,19 +982,19 @@
         </is>
       </c>
       <c r="C25" s="3" t="n">
-        <v>-5.66666666666667</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>-3.03333333333333</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="E25" s="3" t="n">
-        <v>-5.93333333333334</v>
+        <v>-1.1111111111111</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>Keenan Allen</t>
+          <t>kalifraymond</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
@@ -1003,19 +1003,19 @@
         </is>
       </c>
       <c r="C26" s="2" t="n">
-        <v>10.7</v>
+        <v>17.23333333333333</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>7.3</v>
+        <v>11.6</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>55.63333333333333</v>
+        <v>56.9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>Keenan Allen</t>
+          <t>kalifraymond</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
@@ -1024,19 +1024,19 @@
         </is>
       </c>
       <c r="C27" s="2" t="n">
-        <v>11.16666666666667</v>
+        <v>13.23333333333333</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>7.600000000000001</v>
+        <v>10.16666666666667</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>54</v>
+        <v>60.43333333333334</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>Keenan Allen</t>
+          <t>kalifraymond</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
@@ -1045,19 +1045,19 @@
         </is>
       </c>
       <c r="C28" s="2" t="n">
-        <v>0.4666666666666686</v>
+        <v>-4</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.3000000000000016</v>
+        <v>-1.433333333333334</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-1.633333333333333</v>
+        <v>3.533333333333339</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>Darius Slayton</t>
+          <t>Keenan Allen</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
@@ -1066,19 +1066,19 @@
         </is>
       </c>
       <c r="C29" s="3" t="n">
-        <v>14.46666666666667</v>
+        <v>10.7</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>7.466666666666668</v>
+        <v>7.3</v>
       </c>
       <c r="E29" s="3" t="n">
-        <v>42.93333333333334</v>
+        <v>55.63333333333333</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>Darius Slayton</t>
+          <t>Keenan Allen</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
@@ -1087,19 +1087,19 @@
         </is>
       </c>
       <c r="C30" s="3" t="n">
-        <v>15.26666666666667</v>
+        <v>11.16666666666667</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>9.333333333333334</v>
+        <v>7.600000000000001</v>
       </c>
       <c r="E30" s="3" t="n">
-        <v>52.6</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>Darius Slayton</t>
+          <t>Keenan Allen</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
@@ -1108,19 +1108,19 @@
         </is>
       </c>
       <c r="C31" s="3" t="n">
-        <v>0.7999999999999989</v>
+        <v>0.4666666666666686</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>1.866666666666666</v>
+        <v>0.3000000000000016</v>
       </c>
       <c r="E31" s="3" t="n">
-        <v>9.666666666666664</v>
+        <v>-1.633333333333333</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>Amari Cooper</t>
+          <t>Kendrick Bourne</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
@@ -1129,19 +1129,19 @@
         </is>
       </c>
       <c r="C32" s="2" t="n">
-        <v>13.3</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>8.966666666666667</v>
+        <v>9.5</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>59.96666666666666</v>
+        <v>60.96666666666667</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>Amari Cooper</t>
+          <t>Kendrick Bourne</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
@@ -1150,19 +1150,19 @@
         </is>
       </c>
       <c r="C33" s="2" t="n">
-        <v>14.95555555555556</v>
+        <v>11.43333333333333</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>8.466666666666667</v>
+        <v>8.133333333333333</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>49.95555555555555</v>
+        <v>52.86666666666667</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>Amari Cooper</t>
+          <t>Kendrick Bourne</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
@@ -1171,19 +1171,19 @@
         </is>
       </c>
       <c r="C34" s="2" t="n">
-        <v>1.655555555555557</v>
+        <v>-1.900000000000002</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>-0.5</v>
+        <v>-1.366666666666667</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>-10.01111111111111</v>
+        <v>-8.099999999999994</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>Diontae Johnson</t>
+          <t>Marquez Valdes-Scantling</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
@@ -1192,19 +1192,19 @@
         </is>
       </c>
       <c r="C35" s="3" t="n">
-        <v>10.96666666666667</v>
+        <v>18.26666666666667</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>6.900000000000001</v>
+        <v>8.966666666666667</v>
       </c>
       <c r="E35" s="3" t="n">
-        <v>47.79999999999999</v>
+        <v>39.83333333333334</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>Diontae Johnson</t>
+          <t>Marquez Valdes-Scantling</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
@@ -1213,19 +1213,19 @@
         </is>
       </c>
       <c r="C36" s="3" t="n">
-        <v>11.075</v>
+        <v>16.82222222222222</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>6.066666666666666</v>
+        <v>7.911111111111111</v>
       </c>
       <c r="E36" s="3" t="n">
-        <v>44.13333333333333</v>
+        <v>40.48888888888889</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>Diontae Johnson</t>
+          <t>Marquez Valdes-Scantling</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
@@ -1234,19 +1234,19 @@
         </is>
       </c>
       <c r="C37" s="3" t="n">
-        <v>0.1083333333333307</v>
+        <v>-1.444444444444443</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>-0.8333333333333348</v>
+        <v>-1.055555555555555</v>
       </c>
       <c r="E37" s="3" t="n">
-        <v>-3.666666666666657</v>
+        <v>0.6555555555555515</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>Ray McCloud</t>
+          <t>Mike Evans</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
@@ -1255,19 +1255,19 @@
         </is>
       </c>
       <c r="C38" s="2" t="n">
-        <v>5.5</v>
+        <v>15.23333333333333</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>3.85</v>
+        <v>9.366666666666667</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>37.84999999999999</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>Ray McCloud</t>
+          <t>Mike Evans</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
@@ -1276,19 +1276,19 @@
         </is>
       </c>
       <c r="C39" s="2" t="n">
-        <v>13.26666666666667</v>
+        <v>14.7</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>8.866666666666667</v>
+        <v>9.066666666666668</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>56.8</v>
+        <v>56.9</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>Ray McCloud</t>
+          <t>Mike Evans</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
@@ -1297,19 +1297,19 @@
         </is>
       </c>
       <c r="C40" s="2" t="n">
-        <v>7.766666666666666</v>
+        <v>-0.5333333333333332</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>5.016666666666667</v>
+        <v>-0.2999999999999989</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>18.95000000000001</v>
+        <v>-0.9000000000000057</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>Tyler Lockett</t>
+          <t>Noah Brown</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
@@ -1318,19 +1318,19 @@
         </is>
       </c>
       <c r="C41" s="3" t="n">
-        <v>13.16666666666667</v>
+        <v>11.1</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>9.533333333333333</v>
+        <v>6.866666666666667</v>
       </c>
       <c r="E41" s="3" t="n">
-        <v>61.63333333333335</v>
+        <v>52.06666666666666</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>Tyler Lockett</t>
+          <t>Noah Brown</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
@@ -1339,19 +1339,19 @@
         </is>
       </c>
       <c r="C42" s="3" t="n">
-        <v>11.93333333333333</v>
+        <v>14.33333333333333</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>8.066666666666668</v>
+        <v>8.633333333333333</v>
       </c>
       <c r="E42" s="3" t="n">
-        <v>58.56666666666666</v>
+        <v>52.8</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>Tyler Lockett</t>
+          <t>Noah Brown</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
@@ -1360,19 +1360,19 @@
         </is>
       </c>
       <c r="C43" s="3" t="n">
-        <v>-1.233333333333334</v>
+        <v>3.233333333333334</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>-1.466666666666665</v>
+        <v>1.766666666666666</v>
       </c>
       <c r="E43" s="3" t="n">
-        <v>-3.066666666666684</v>
+        <v>0.7333333333333414</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>Justin Hardee</t>
+          <t>Ray McCloud</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
@@ -1380,14 +1380,20 @@
           <t>Group1</t>
         </is>
       </c>
-      <c r="C44" s="2" t="n"/>
-      <c r="D44" s="2" t="n"/>
-      <c r="E44" s="2" t="n"/>
+      <c r="C44" s="2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>37.84999999999999</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>Justin Hardee</t>
+          <t>Ray McCloud</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
@@ -1395,14 +1401,20 @@
           <t>Group2</t>
         </is>
       </c>
-      <c r="C45" s="2" t="n"/>
-      <c r="D45" s="2" t="n"/>
-      <c r="E45" s="2" t="n"/>
+      <c r="C45" s="2" t="n">
+        <v>13.26666666666667</v>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>8.866666666666667</v>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>56.8</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>Justin Hardee</t>
+          <t>Ray McCloud</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
@@ -1410,14 +1422,20 @@
           <t>Difference</t>
         </is>
       </c>
-      <c r="C46" s="2" t="n"/>
-      <c r="D46" s="2" t="n"/>
-      <c r="E46" s="2" t="n"/>
+      <c r="C46" s="2" t="n">
+        <v>7.766666666666666</v>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>5.016666666666667</v>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>18.95000000000001</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>Noah Brown</t>
+          <t>Tyler Lockett</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
@@ -1426,19 +1444,19 @@
         </is>
       </c>
       <c r="C47" s="3" t="n">
-        <v>11.1</v>
+        <v>13.16666666666667</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>6.866666666666667</v>
+        <v>9.533333333333333</v>
       </c>
       <c r="E47" s="3" t="n">
-        <v>52.06666666666666</v>
+        <v>61.63333333333335</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>Noah Brown</t>
+          <t>Tyler Lockett</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
@@ -1447,19 +1465,19 @@
         </is>
       </c>
       <c r="C48" s="3" t="n">
-        <v>14.33333333333333</v>
+        <v>11.93333333333333</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>8.633333333333333</v>
+        <v>8.066666666666668</v>
       </c>
       <c r="E48" s="3" t="n">
-        <v>52.8</v>
+        <v>58.56666666666666</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>Noah Brown</t>
+          <t>Tyler Lockett</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
@@ -1468,19 +1486,19 @@
         </is>
       </c>
       <c r="C49" s="3" t="n">
-        <v>3.233333333333334</v>
+        <v>-1.233333333333334</v>
       </c>
       <c r="D49" s="3" t="n">
-        <v>1.766666666666666</v>
+        <v>-1.466666666666665</v>
       </c>
       <c r="E49" s="3" t="n">
-        <v>0.7333333333333414</v>
+        <v>-3.066666666666684</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>joshreynolds</t>
+          <t>Tyreek Hill</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
@@ -1489,19 +1507,19 @@
         </is>
       </c>
       <c r="C50" s="2" t="n">
-        <v>13.44444444444444</v>
+        <v>13.56666666666667</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>7.677777777777777</v>
+        <v>9</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>51.73333333333333</v>
+        <v>59.26666666666666</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>joshreynolds</t>
+          <t>Tyreek Hill</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
@@ -1510,19 +1528,19 @@
         </is>
       </c>
       <c r="C51" s="2" t="n">
-        <v>13.84444444444444</v>
+        <v>13.76666666666667</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>8.077777777777778</v>
+        <v>9.466666666666667</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>50.62222222222223</v>
+        <v>55.46666666666667</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>joshreynolds</t>
+          <t>Tyreek Hill</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
@@ -1531,19 +1549,19 @@
         </is>
       </c>
       <c r="C52" s="2" t="n">
-        <v>0.4000000000000004</v>
+        <v>0.1999999999999975</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>0.4000000000000004</v>
+        <v>0.4666666666666668</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>-1.1111111111111</v>
+        <v>-3.79999999999999</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>kalifraymond</t>
+          <t>Zach Pascal</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
@@ -1552,19 +1570,19 @@
         </is>
       </c>
       <c r="C53" s="3" t="n">
-        <v>17.23333333333333</v>
+        <v>13.06666666666667</v>
       </c>
       <c r="D53" s="3" t="n">
-        <v>11.6</v>
+        <v>7.633333333333333</v>
       </c>
       <c r="E53" s="3" t="n">
-        <v>56.9</v>
+        <v>47.53333333333334</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>kalifraymond</t>
+          <t>Zach Pascal</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
@@ -1573,19 +1591,19 @@
         </is>
       </c>
       <c r="C54" s="3" t="n">
-        <v>13.23333333333333</v>
+        <v>7.4</v>
       </c>
       <c r="D54" s="3" t="n">
-        <v>10.16666666666667</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="E54" s="3" t="n">
-        <v>60.43333333333334</v>
+        <v>41.6</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>kalifraymond</t>
+          <t>Zach Pascal</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
@@ -1594,76 +1612,13 @@
         </is>
       </c>
       <c r="C55" s="3" t="n">
-        <v>-4</v>
+        <v>-5.666666666666668</v>
       </c>
       <c r="D55" s="3" t="n">
-        <v>-1.433333333333334</v>
+        <v>-3.033333333333332</v>
       </c>
       <c r="E55" s="3" t="n">
-        <v>3.533333333333339</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="inlineStr">
-        <is>
-          <t>Mike Evans</t>
-        </is>
-      </c>
-      <c r="B56" s="2" t="inlineStr">
-        <is>
-          <t>Group1</t>
-        </is>
-      </c>
-      <c r="C56" s="2" t="n">
-        <v>15.23333333333333</v>
-      </c>
-      <c r="D56" s="2" t="n">
-        <v>9.366666666666667</v>
-      </c>
-      <c r="E56" s="2" t="n">
-        <v>57.8</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="inlineStr">
-        <is>
-          <t>Mike Evans</t>
-        </is>
-      </c>
-      <c r="B57" s="2" t="inlineStr">
-        <is>
-          <t>Group2</t>
-        </is>
-      </c>
-      <c r="C57" s="2" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="D57" s="2" t="n">
-        <v>9.066666666666668</v>
-      </c>
-      <c r="E57" s="2" t="n">
-        <v>56.9</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="inlineStr">
-        <is>
-          <t>Mike Evans</t>
-        </is>
-      </c>
-      <c r="B58" s="2" t="inlineStr">
-        <is>
-          <t>Difference</t>
-        </is>
-      </c>
-      <c r="C58" s="2" t="n">
-        <v>-0.5333333333333332</v>
-      </c>
-      <c r="D58" s="2" t="n">
-        <v>-0.2999999999999989</v>
-      </c>
-      <c r="E58" s="2" t="n">
-        <v>-0.9000000000000057</v>
+        <v>-5.933333333333337</v>
       </c>
     </row>
   </sheetData>
